--- a/Project Artifacts/WorkBreakDown.xlsx
+++ b/Project Artifacts/WorkBreakDown.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HandsOnNode-Express-React\TrienKhaiUDWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HandsOnNode-Express-React\TrienKhaiUDWeb\Project Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2291AB01-C92C-43F7-B7FE-05616B90AD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6ACC72-A02F-4689-B5EB-ACF71CE316C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>TRIỂN KHAI ỨNG DỤNG WEB</t>
   </si>
@@ -52,13 +61,79 @@
   </si>
   <si>
     <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Team FrontEnd</t>
+  </si>
+  <si>
+    <t>Team BackEnd</t>
+  </si>
+  <si>
+    <t>Planning Task BackEnd</t>
+  </si>
+  <si>
+    <t>Planning Task FrontEnd</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Khảo sát nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>22/02/2022</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện người dùng</t>
+  </si>
+  <si>
+    <t>25/02/2022</t>
+  </si>
+  <si>
+    <t>26/02/2022</t>
+  </si>
+  <si>
+    <t>Header (đính kèm modal Login, Register), Footer</t>
+  </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>Trang hiển thị sách</t>
+  </si>
+  <si>
+    <t>Thùy</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Trí</t>
+  </si>
+  <si>
+    <t>Phần trăm đóng góp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +148,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -90,15 +200,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,19 +589,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="B1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,66 +623,728 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="L2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2">
+        <v>12</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2">
+        <v>13</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2">
+        <v>14</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2">
+        <v>15</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2">
+        <v>16</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="H30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="2">
+        <f>(COUNTIF(S4:S20,"Trường") / (COUNTIF(S4:S20,"*")- COUNTIF(S4:S20,"Team")))*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="M31" s="19">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="2" t="e">
+        <f>(COUNTIF(I4:I20,"Trường") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J32" s="4"/>
+      <c r="K32" s="2">
+        <f>(COUNTIF(S4:S20,"Trí") / (COUNTIF(S4:S20,"*")- COUNTIF(S4:S20,"Team")))*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="M32" s="19">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="2" t="e">
+        <f>(COUNTIF(I4:I20,"Thuận") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J33" s="4"/>
+      <c r="K33" s="2">
+        <f>(COUNTIF(S4:S20,"Thùy") / (COUNTIF(S4:S20,"*")- COUNTIF(S4:S20,"Team")))*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="M33" s="19">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="2" t="e">
+        <f>(COUNTIF(I4:I20,"Vũ") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="M34" s="23">
+        <v>4</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="2" t="e">
+        <f>(COUNTIF(I4:I20,"Sướng") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D36" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="26">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Artifacts/WorkBreakDown.xlsx
+++ b/Project Artifacts/WorkBreakDown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HandsOnNode-Express-React\TrienKhaiUDWeb\Project Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6ACC72-A02F-4689-B5EB-ACF71CE316C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DFB14-7E59-4A6D-913D-BEEE771C2976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>TRIỂN KHAI ỨNG DỤNG WEB</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>Phần trăm đóng góp</t>
+  </si>
+  <si>
+    <t>Đăng nhập, Đăng ký</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Đăng nhập với google</t>
+  </si>
+  <si>
+    <t>Sướng</t>
+  </si>
+  <si>
+    <t>Filter book, detail book</t>
+  </si>
+  <si>
+    <t>Thuận</t>
+  </si>
+  <si>
+    <t>Thiết kế Database</t>
+  </si>
+  <si>
+    <t>Test case</t>
   </si>
 </sst>
 </file>
@@ -258,38 +282,45 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,16 +330,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +616,7 @@
   <dimension ref="B1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,711 +639,754 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="L2" s="15" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="13" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="14" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2">
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2">
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="2" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2">
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="2" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="2">
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="2" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="2"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2">
+      <c r="C8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1">
         <v>5</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2">
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1">
         <v>6</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2">
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
         <v>7</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="L11" s="1">
         <v>8</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1">
         <v>9</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1">
         <v>10</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1">
         <v>12</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1">
         <v>13</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1">
         <v>14</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1">
         <v>15</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1">
         <v>16</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1">
         <v>17</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
     <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="H30" s="22" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="H30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="3" t="s">
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="2">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="2">
+      <c r="J31" s="11"/>
+      <c r="K31" s="1">
         <f>(COUNTIF(S4:S20,"Trường") / (COUNTIF(S4:S20,"*")- COUNTIF(S4:S20,"Team")))*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="7">
         <v>1</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="2" t="e">
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="1">
         <f>(COUNTIF(I4:I20,"Trường") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
-        <v>#DIV/0!</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="H32" s="2">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="1">
         <v>2</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="2">
+      <c r="J32" s="11"/>
+      <c r="K32" s="1">
         <f>(COUNTIF(S4:S20,"Trí") / (COUNTIF(S4:S20,"*")- COUNTIF(S4:S20,"Team")))*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="7">
         <v>2</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="2" t="e">
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="1">
         <f>(COUNTIF(I4:I20,"Thuận") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="2">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="H33" s="1">
         <v>3</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="2">
+      <c r="J33" s="11"/>
+      <c r="K33" s="1">
         <f>(COUNTIF(S4:S20,"Thùy") / (COUNTIF(S4:S20,"*")- COUNTIF(S4:S20,"Team")))*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="7">
         <v>3</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="2" t="e">
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="1">
         <f>(COUNTIF(I4:I20,"Vũ") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="M34" s="23">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="M34" s="10">
         <v>4</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="2" t="e">
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="1">
         <f>(COUNTIF(I4:I20,"Sướng") / (COUNTIF(I4:I20,"*")- COUNTIF(I4:I20,"Team")))*100</f>
-        <v>#DIV/0!</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="N34:P34"/>
     <mergeCell ref="M5:P5"/>
@@ -1335,16 +1402,6 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
